--- a/raw_data/umd/2023/RL_2023-08-07_MB5a.xlsx
+++ b/raw_data/umd/2023/RL_2023-08-07_MB5a.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Library/CloudStorage/Box-Box/WI Idea Collaboration Grant Data/UMD Sensor Data/Sensors 2023/08_07_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA74AA0-CB52-C046-A8A7-462ED4D061F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEA94C5-2AF9-A243-8F2A-FDBE49F9FCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{CCF65AD7-C142-E545-98C3-EF62457EB467}"/>
   </bookViews>
@@ -20,52 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>Location Properties</t>
-  </si>
-  <si>
-    <t>Location Name = MB5a</t>
-  </si>
-  <si>
-    <t>Location ID = 0625c6d0-ccb3-410b-9357-50e41be8d8e8</t>
-  </si>
-  <si>
-    <t>Latitude = 46.88833 °</t>
-  </si>
-  <si>
-    <t>Longitude = -91.0527833 °</t>
-  </si>
-  <si>
-    <t>Report Properties</t>
-  </si>
-  <si>
-    <t>Start Time = 2023-08-07 10:34:52</t>
-  </si>
-  <si>
-    <t>Time Offset = -05:00:00</t>
-  </si>
-  <si>
-    <t>Duration = 00:00:46</t>
-  </si>
-  <si>
-    <t>Readings = 47</t>
-  </si>
-  <si>
-    <t>Instrument Properties</t>
-  </si>
-  <si>
-    <t>Device Model = Aqua TROLL 600</t>
-  </si>
-  <si>
-    <t>Device SN = 804550</t>
-  </si>
-  <si>
-    <t>Device Model = PowerPack</t>
-  </si>
-  <si>
-    <t>Device SN = 868976</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date Time</t>
   </si>
@@ -126,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -633,7 +588,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -1011,9 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC2C660-61CC-C742-8FDB-617D935E524D}">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1037,2694 +994,2599 @@
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45145.440879629627</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9.5487950000000001</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6.1560449999999998</v>
+      </c>
+      <c r="D2" s="3">
+        <v>93.348609999999994</v>
+      </c>
+      <c r="E2" s="3">
+        <v>105.6878</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.9537980000000002E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.9984674</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6.8697079999999994E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.45489249999999998</v>
+      </c>
+      <c r="J2" s="3">
+        <v>18.88963</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.26350210000000002</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.2323379999999999</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.18491289999999999</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.90343079999999998</v>
+      </c>
+      <c r="O2" s="3">
+        <v>991.86149999999998</v>
+      </c>
+      <c r="P2" s="3">
+        <v>46.886074350000001</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>-91.052399280000003</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45145.440891203703</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9.5420870000000004</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.1441470000000002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>93.349410000000006</v>
+      </c>
+      <c r="E3" s="3">
+        <v>105.6974</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.9542589999999997E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99846809999999997</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6.8703330000000007E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.45552160000000003</v>
+      </c>
+      <c r="J3" s="3">
+        <v>18.885149999999999</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.2623048</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.23058</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.18431929999999999</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.90241839999999995</v>
+      </c>
+      <c r="O3" s="3">
+        <v>991.86059999999998</v>
+      </c>
+      <c r="P3" s="3">
+        <v>46.886068999999999</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-91.052387449999998</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45145.44090277778</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9.5353779999999997</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6.1322479999999997</v>
+      </c>
+      <c r="D4" s="3">
+        <v>93.350210000000004</v>
+      </c>
+      <c r="E4" s="3">
+        <v>105.7071</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.95472E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99846889999999999</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6.8709580000000006E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.45615070000000002</v>
+      </c>
+      <c r="J4" s="3">
+        <v>18.880680000000002</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.2611076</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.228823</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.18372569999999999</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.90140609999999999</v>
+      </c>
+      <c r="O4" s="3">
+        <v>991.85969999999998</v>
+      </c>
+      <c r="P4" s="3">
+        <v>46.886068999999999</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-91.052387449999998</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45145.44091435185</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9.6361179999999997</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6.1859400000000004</v>
+      </c>
+      <c r="D5" s="3">
+        <v>93.360810000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>105.82389999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.9603380000000002E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99847529999999995</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6.8785559999999996E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.28464780000000001</v>
+      </c>
+      <c r="J5" s="3">
+        <v>18.874680000000001</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.27269979999999999</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.2549650000000001</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.19172700000000001</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.90147999999999995</v>
+      </c>
+      <c r="O5" s="3">
+        <v>991.90309999999999</v>
+      </c>
+      <c r="P5" s="3">
+        <v>46.886068999999999</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-91.052387449999998</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45145.440925925926</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9.641216</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6.1875119999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>93.360860000000002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>105.8314</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.9606959999999999E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.99847580000000002</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6.8790409999999996E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.27586260000000001</v>
+      </c>
+      <c r="J6" s="3">
+        <v>18.87302</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.27294879999999999</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.2555639999999999</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.19190209999999999</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.90112000000000003</v>
+      </c>
+      <c r="O6" s="3">
+        <v>991.90509999999995</v>
+      </c>
+      <c r="P6" s="3">
+        <v>46.886068999999999</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-91.052387449999998</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45145.440937500003</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9.6463160000000006</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6.1890840000000003</v>
+      </c>
+      <c r="D7" s="3">
+        <v>93.360889999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>105.8389</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.9610540000000002E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.99847640000000004</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6.8795259999999997E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.26707730000000002</v>
+      </c>
+      <c r="J7" s="3">
+        <v>18.871369999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.27319789999999999</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.256162</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.1920772</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.90076000000000001</v>
+      </c>
+      <c r="O7" s="3">
+        <v>991.90710000000001</v>
+      </c>
+      <c r="P7" s="3">
+        <v>46.886068999999999</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-91.052387449999998</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45145.440949074073</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9.6961750000000002</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6.1573770000000003</v>
+      </c>
+      <c r="D8" s="3">
+        <v>93.378</v>
+      </c>
+      <c r="E8" s="3">
+        <v>105.83669999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.9609439999999998E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.9984769</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6.8793850000000004E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.45191419999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>18.84468</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.23161080000000001</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.158514</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.1628386</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.88545529999999995</v>
+      </c>
+      <c r="O8" s="3">
+        <v>991.87350000000004</v>
+      </c>
+      <c r="P8" s="3">
+        <v>46.886068999999999</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-91.052387449999998</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45145.440960648149</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.7008360000000007</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6.1566799999999997</v>
+      </c>
+      <c r="D9" s="3">
+        <v>93.379140000000007</v>
+      </c>
+      <c r="E9" s="3">
+        <v>105.83920000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.9610620000000001E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99847710000000001</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6.8795449999999994E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.45806599999999997</v>
+      </c>
+      <c r="J9" s="3">
+        <v>18.84308</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.22964490000000001</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.1538889999999999</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.1614565</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.88463559999999997</v>
+      </c>
+      <c r="O9" s="3">
+        <v>991.87270000000001</v>
+      </c>
+      <c r="P9" s="3">
+        <v>46.886068999999999</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-91.052387449999998</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45145.440972222219</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9.7054980000000004</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6.1559819999999998</v>
+      </c>
+      <c r="D10" s="3">
+        <v>93.380260000000007</v>
+      </c>
+      <c r="E10" s="3">
+        <v>105.8416</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.9611799999999998E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99847730000000001</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6.8797049999999998E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.46421790000000002</v>
+      </c>
+      <c r="J10" s="3">
+        <v>18.84149</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.22767899999999999</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.1492629999999999</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.1600743</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.88381580000000004</v>
+      </c>
+      <c r="O10" s="3">
+        <v>991.87180000000001</v>
+      </c>
+      <c r="P10" s="3">
+        <v>46.886068999999999</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-91.052387449999998</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45145.440983796296</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.5949670000000005</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.2666690000000003</v>
+      </c>
+      <c r="D11" s="3">
+        <v>93.387209999999996</v>
+      </c>
+      <c r="E11" s="3">
+        <v>105.89019999999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.9635079999999998E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99848530000000002</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6.8868109999999996E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.42541050000000002</v>
+      </c>
+      <c r="J11" s="3">
+        <v>18.81992</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.85024390000000005</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2.5836060000000001</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.59778100000000001</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.88356979999999996</v>
+      </c>
+      <c r="O11" s="3">
+        <v>991.90530000000001</v>
+      </c>
+      <c r="P11" s="3">
+        <v>46.886064779999998</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-91.052371960000002</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45145.440995370373</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9.5902189999999994</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6.2718030000000002</v>
+      </c>
+      <c r="D12" s="3">
+        <v>93.387929999999997</v>
+      </c>
+      <c r="E12" s="3">
+        <v>105.8927</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.9636279999999998E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99848579999999998</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6.8871829999999995E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.42739280000000002</v>
+      </c>
+      <c r="J12" s="3">
+        <v>18.818190000000001</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.88217939999999995</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2.6571440000000002</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.6202339</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.88321850000000002</v>
+      </c>
+      <c r="O12" s="3">
+        <v>991.90629999999999</v>
+      </c>
+      <c r="P12" s="3">
+        <v>46.886064779999998</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-91.052371960000002</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45145.441006944442</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9.5854700000000008</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.2769380000000004</v>
+      </c>
+      <c r="D13" s="3">
+        <v>93.388660000000002</v>
+      </c>
+      <c r="E13" s="3">
+        <v>105.8952</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.9637489999999999E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.99848619999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6.8875569999999997E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.42937510000000001</v>
+      </c>
+      <c r="J13" s="3">
+        <v>18.81645</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.91411480000000001</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2.7306810000000001</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.64268670000000006</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.88286719999999996</v>
+      </c>
+      <c r="O13" s="3">
+        <v>991.90729999999996</v>
+      </c>
+      <c r="P13" s="3">
+        <v>46.886064779999998</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-91.052371960000002</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45145.441018518519</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9.7485350000000004</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6.326092</v>
+      </c>
+      <c r="D14" s="3">
+        <v>93.405289999999994</v>
+      </c>
+      <c r="E14" s="3">
+        <v>105.9943</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.9684989999999998E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.99848859999999995</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6.8901309999999993E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.30029450000000002</v>
+      </c>
+      <c r="J14" s="3">
+        <v>18.792950000000001</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.6031059999999999</v>
+      </c>
+      <c r="L14" s="3">
+        <v>4.2841509999999996</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1.127095</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.89843329999999999</v>
+      </c>
+      <c r="O14" s="3">
+        <v>991.93409999999994</v>
+      </c>
+      <c r="P14" s="3">
+        <v>46.886064779999998</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-91.052371960000002</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45145.441030092596</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9.7548770000000005</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.3311000000000002</v>
+      </c>
+      <c r="D15" s="3">
+        <v>93.406329999999997</v>
+      </c>
+      <c r="E15" s="3">
+        <v>106.00060000000001</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4.9688030000000001E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99848890000000001</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6.8904220000000002E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.29256779999999999</v>
+      </c>
+      <c r="J15" s="3">
+        <v>18.791219999999999</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.6532560000000001</v>
+      </c>
+      <c r="L15" s="3">
+        <v>4.3978840000000003</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1.162355</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.89925659999999996</v>
+      </c>
+      <c r="O15" s="3">
+        <v>991.93619999999999</v>
+      </c>
+      <c r="P15" s="3">
+        <v>46.886064779999998</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-91.052371960000002</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45145.441041666665</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9.7612179999999995</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6.3361080000000003</v>
+      </c>
+      <c r="D16" s="3">
+        <v>93.40737</v>
+      </c>
+      <c r="E16" s="3">
+        <v>106.00700000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.9691069999999997E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99848919999999997</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.8907129999999997E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.28484120000000002</v>
+      </c>
+      <c r="J16" s="3">
+        <v>18.7895</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.7034069999999999</v>
+      </c>
+      <c r="L16" s="3">
+        <v>4.5116180000000004</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.197614</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.90007999999999999</v>
+      </c>
+      <c r="O16" s="3">
+        <v>991.9384</v>
+      </c>
+      <c r="P16" s="3">
+        <v>46.886062410000001</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-91.052358709999993</v>
+      </c>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A17" s="4">
+        <v>45145.441053240742</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9.6762920000000001</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6.3492649999999999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>92.352059999999994</v>
+      </c>
+      <c r="E17" s="3">
+        <v>105.0501</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4.9225770000000002E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.99850910000000004</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.7643309999999998E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.46794429999999998</v>
+      </c>
+      <c r="J17" s="3">
+        <v>18.672689999999999</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3.4430939999999999</v>
+      </c>
+      <c r="L17" s="3">
+        <v>8.5165140000000008</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2.4207360000000002</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.88498350000000003</v>
+      </c>
+      <c r="O17" s="3">
+        <v>991.93010000000004</v>
+      </c>
+      <c r="P17" s="3">
+        <v>46.886062410000001</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-91.052358709999993</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="4">
+        <v>45145.441064814811</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9.6752950000000002</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6.3510249999999999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>92.29571</v>
+      </c>
+      <c r="E18" s="3">
+        <v>105.0008</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.9201799999999997E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.99851020000000001</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6.7575949999999996E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.47501500000000002</v>
+      </c>
+      <c r="J18" s="3">
+        <v>18.665900000000001</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3.551501</v>
+      </c>
+      <c r="L18" s="3">
+        <v>8.7653649999999992</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2.496953</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.88450799999999996</v>
+      </c>
+      <c r="O18" s="3">
+        <v>991.93020000000001</v>
+      </c>
+      <c r="P18" s="3">
+        <v>46.886062410000001</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-91.052358709999993</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="4">
+        <v>45145.441076388888</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9.6742969999999993</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6.3527849999999999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>92.239360000000005</v>
+      </c>
+      <c r="E19" s="3">
+        <v>104.9515</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.9177829999999999E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.99851129999999999</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6.7508589999999993E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.48208570000000001</v>
+      </c>
+      <c r="J19" s="3">
+        <v>18.659109999999998</v>
+      </c>
+      <c r="K19" s="3">
+        <v>3.659907</v>
+      </c>
+      <c r="L19" s="3">
+        <v>9.0142150000000001</v>
+      </c>
+      <c r="M19" s="3">
+        <v>2.5731709999999999</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.88403240000000005</v>
+      </c>
+      <c r="O19" s="3">
+        <v>991.93039999999996</v>
+      </c>
+      <c r="P19" s="3">
+        <v>46.886062410000001</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-91.052358709999993</v>
+      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4">
+        <v>45145.441087962965</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9.6866249999999994</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6.4413929999999997</v>
+      </c>
+      <c r="D20" s="3">
+        <v>87.470590000000001</v>
+      </c>
+      <c r="E20" s="3">
+        <v>101.1143</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.7305699999999999E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99864640000000005</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6.5633159999999996E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.4918207</v>
+      </c>
+      <c r="J20" s="3">
+        <v>18.343219999999999</v>
+      </c>
+      <c r="K20" s="3">
+        <v>4.8381689999999997</v>
+      </c>
+      <c r="L20" s="3">
+        <v>11.761950000000001</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3.4015710000000001</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.9063814</v>
+      </c>
+      <c r="O20" s="3">
+        <v>991.92160000000001</v>
+      </c>
+      <c r="P20" s="3">
+        <v>46.886062410000001</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-91.052358709999993</v>
+      </c>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4">
+        <v>45145.441099537034</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9.6853580000000008</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6.4463299999999997</v>
+      </c>
+      <c r="D21" s="3">
+        <v>87.197890000000001</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100.8925</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.7197509999999998E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.99865389999999998</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6.550715E-2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.49638569999999999</v>
+      </c>
+      <c r="J21" s="3">
+        <v>18.324110000000001</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4.9382760000000001</v>
+      </c>
+      <c r="L21" s="3">
+        <v>11.994249999999999</v>
+      </c>
+      <c r="M21" s="3">
+        <v>3.4719540000000002</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.90721459999999998</v>
+      </c>
+      <c r="O21" s="3">
+        <v>991.92100000000005</v>
+      </c>
+      <c r="P21" s="3">
+        <v>46.886062410000001</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-91.052358709999993</v>
+      </c>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="4">
+        <v>45145.441111111111</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9.6840919999999997</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6.4512650000000002</v>
+      </c>
+      <c r="D22" s="3">
+        <v>86.925190000000001</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100.6707</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4.7089319999999997E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.99866140000000003</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6.5381140000000004E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.50095069999999997</v>
+      </c>
+      <c r="J22" s="3">
+        <v>18.305009999999999</v>
+      </c>
+      <c r="K22" s="3">
+        <v>5.0383829999999996</v>
+      </c>
+      <c r="L22" s="3">
+        <v>12.226559999999999</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3.5423360000000002</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.90804779999999996</v>
+      </c>
+      <c r="O22" s="3">
+        <v>991.9203</v>
+      </c>
+      <c r="P22" s="3">
+        <v>46.886059199999998</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>-91.052340450000003</v>
+      </c>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>45145.440879629627</v>
+        <v>45145.441122685188</v>
       </c>
       <c r="B23" s="3">
-        <v>9.5487950000000001</v>
+        <v>9.5728469999999994</v>
       </c>
       <c r="C23" s="3">
-        <v>6.1560449999999998</v>
+        <v>6.7521979999999999</v>
       </c>
       <c r="D23" s="3">
-        <v>93.348609999999994</v>
+        <v>82.156199999999998</v>
       </c>
       <c r="E23" s="3">
-        <v>105.6878</v>
+        <v>97.100040000000007</v>
       </c>
       <c r="F23" s="3">
-        <v>4.9537980000000002E-2</v>
+        <v>4.5338860000000002E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>0.9984674</v>
+        <v>0.9988224</v>
       </c>
       <c r="H23" s="3">
-        <v>6.8697079999999994E-2</v>
+        <v>6.3084979999999999E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>0.45489249999999998</v>
+        <v>0.50821510000000003</v>
       </c>
       <c r="J23" s="3">
-        <v>18.88963</v>
+        <v>16.988050000000001</v>
       </c>
       <c r="K23" s="3">
-        <v>0.26350210000000002</v>
+        <v>5.926126</v>
       </c>
       <c r="L23" s="3">
-        <v>1.2323379999999999</v>
+        <v>14.28275</v>
       </c>
       <c r="M23" s="3">
-        <v>0.18491289999999999</v>
+        <v>4.1664810000000001</v>
       </c>
       <c r="N23" s="3">
-        <v>0.90343079999999998</v>
+        <v>0.87846329999999995</v>
       </c>
       <c r="O23" s="3">
-        <v>991.86149999999998</v>
+        <v>991.92</v>
       </c>
       <c r="P23" s="3">
-        <v>46.886074350000001</v>
+        <v>46.886059199999998</v>
       </c>
       <c r="Q23" s="3">
-        <v>-91.052399280000003</v>
+        <v>-91.052340450000003</v>
       </c>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>45145.440891203703</v>
+        <v>45145.441134259258</v>
       </c>
       <c r="B24" s="3">
-        <v>9.5420870000000004</v>
+        <v>9.5670909999999996</v>
       </c>
       <c r="C24" s="3">
-        <v>6.1441470000000002</v>
+        <v>6.7703720000000001</v>
       </c>
       <c r="D24" s="3">
-        <v>93.349410000000006</v>
+        <v>81.799589999999995</v>
       </c>
       <c r="E24" s="3">
-        <v>105.6974</v>
+        <v>96.827619999999996</v>
       </c>
       <c r="F24" s="3">
-        <v>4.9542589999999997E-2</v>
+        <v>4.5205490000000001E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99846809999999997</v>
+        <v>0.99883390000000005</v>
       </c>
       <c r="H24" s="3">
-        <v>6.8703330000000007E-2</v>
+        <v>6.2922019999999995E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>0.45552160000000003</v>
+        <v>0.50875939999999997</v>
       </c>
       <c r="J24" s="3">
-        <v>18.885149999999999</v>
+        <v>16.910019999999999</v>
       </c>
       <c r="K24" s="3">
-        <v>0.2623048</v>
+        <v>5.9982819999999997</v>
       </c>
       <c r="L24" s="3">
-        <v>1.23058</v>
+        <v>14.45026</v>
       </c>
       <c r="M24" s="3">
-        <v>0.18431929999999999</v>
+        <v>4.217212</v>
       </c>
       <c r="N24" s="3">
-        <v>0.90241839999999995</v>
+        <v>0.87731729999999997</v>
       </c>
       <c r="O24" s="3">
-        <v>991.86059999999998</v>
+        <v>991.91989999999998</v>
       </c>
       <c r="P24" s="3">
-        <v>46.886068999999999</v>
+        <v>46.886059199999998</v>
       </c>
       <c r="Q24" s="3">
-        <v>-91.052387449999998</v>
+        <v>-91.052340450000003</v>
       </c>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>45145.44090277778</v>
+        <v>45145.441145833334</v>
       </c>
       <c r="B25" s="3">
-        <v>9.5353779999999997</v>
+        <v>9.5613349999999997</v>
       </c>
       <c r="C25" s="3">
-        <v>6.1322479999999997</v>
+        <v>6.7885470000000003</v>
       </c>
       <c r="D25" s="3">
-        <v>93.350210000000004</v>
+        <v>81.442989999999995</v>
       </c>
       <c r="E25" s="3">
-        <v>105.7071</v>
+        <v>96.555210000000002</v>
       </c>
       <c r="F25" s="3">
-        <v>4.95472E-2</v>
+        <v>4.5072130000000002E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>0.99846889999999999</v>
+        <v>0.99884539999999999</v>
       </c>
       <c r="H25" s="3">
-        <v>6.8709580000000006E-2</v>
+        <v>6.275907E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>0.45615070000000002</v>
+        <v>0.50930379999999997</v>
       </c>
       <c r="J25" s="3">
-        <v>18.880680000000002</v>
+        <v>16.831990000000001</v>
       </c>
       <c r="K25" s="3">
-        <v>0.2611076</v>
+        <v>6.0704380000000002</v>
       </c>
       <c r="L25" s="3">
-        <v>1.228823</v>
+        <v>14.61777</v>
       </c>
       <c r="M25" s="3">
-        <v>0.18372569999999999</v>
+        <v>4.2679429999999998</v>
       </c>
       <c r="N25" s="3">
-        <v>0.90140609999999999</v>
+        <v>0.87617129999999999</v>
       </c>
       <c r="O25" s="3">
-        <v>991.85969999999998</v>
+        <v>991.91959999999995</v>
       </c>
       <c r="P25" s="3">
-        <v>46.886068999999999</v>
+        <v>46.886059930000002</v>
       </c>
       <c r="Q25" s="3">
-        <v>-91.052387449999998</v>
+        <v>-91.052327230000003</v>
       </c>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>45145.44091435185</v>
+        <v>45145.441157407404</v>
       </c>
       <c r="B26" s="3">
-        <v>9.6361179999999997</v>
+        <v>9.5943109999999994</v>
       </c>
       <c r="C26" s="3">
-        <v>6.1859400000000004</v>
+        <v>6.6531909999999996</v>
       </c>
       <c r="D26" s="3">
-        <v>93.360810000000001</v>
+        <v>78.385059999999996</v>
       </c>
       <c r="E26" s="3">
-        <v>105.82389999999999</v>
+        <v>93.789680000000004</v>
       </c>
       <c r="F26" s="3">
-        <v>4.9603380000000002E-2</v>
+        <v>4.366925E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>0.99847529999999995</v>
+        <v>0.99915330000000002</v>
       </c>
       <c r="H26" s="3">
-        <v>6.8785559999999996E-2</v>
+        <v>6.0963290000000003E-2</v>
       </c>
       <c r="I26" s="3">
-        <v>0.28464780000000001</v>
+        <v>0.47743910000000001</v>
       </c>
       <c r="J26" s="3">
-        <v>18.874680000000001</v>
+        <v>15.739890000000001</v>
       </c>
       <c r="K26" s="3">
-        <v>0.27269979999999999</v>
+        <v>7.4632040000000002</v>
       </c>
       <c r="L26" s="3">
-        <v>1.2549650000000001</v>
+        <v>17.81671</v>
       </c>
       <c r="M26" s="3">
-        <v>0.19172700000000001</v>
+        <v>5.2471550000000002</v>
       </c>
       <c r="N26" s="3">
-        <v>0.90147999999999995</v>
+        <v>0.87532840000000001</v>
       </c>
       <c r="O26" s="3">
-        <v>991.90309999999999</v>
+        <v>991.91959999999995</v>
       </c>
       <c r="P26" s="3">
-        <v>46.886068999999999</v>
+        <v>46.886059930000002</v>
       </c>
       <c r="Q26" s="3">
-        <v>-91.052387449999998</v>
+        <v>-91.052327230000003</v>
       </c>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>45145.440925925926</v>
+        <v>45145.441168981481</v>
       </c>
       <c r="B27" s="3">
-        <v>9.641216</v>
+        <v>9.5937079999999995</v>
       </c>
       <c r="C27" s="3">
-        <v>6.1875119999999999</v>
+        <v>6.652126</v>
       </c>
       <c r="D27" s="3">
-        <v>93.360860000000002</v>
+        <v>78.116870000000006</v>
       </c>
       <c r="E27" s="3">
-        <v>105.8314</v>
+        <v>93.562749999999994</v>
       </c>
       <c r="F27" s="3">
-        <v>4.9606959999999999E-2</v>
+        <v>4.3555389999999999E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>0.99847580000000002</v>
+        <v>0.9991738</v>
       </c>
       <c r="H27" s="3">
-        <v>6.8790409999999996E-2</v>
+        <v>6.0815790000000002E-2</v>
       </c>
       <c r="I27" s="3">
-        <v>0.27586260000000001</v>
+        <v>0.47584009999999999</v>
       </c>
       <c r="J27" s="3">
-        <v>18.87302</v>
+        <v>15.651199999999999</v>
       </c>
       <c r="K27" s="3">
-        <v>0.27294879999999999</v>
+        <v>7.5585950000000004</v>
       </c>
       <c r="L27" s="3">
-        <v>1.2555639999999999</v>
+        <v>18.03614</v>
       </c>
       <c r="M27" s="3">
-        <v>0.19190209999999999</v>
+        <v>5.3142209999999999</v>
       </c>
       <c r="N27" s="3">
-        <v>0.90112000000000003</v>
+        <v>0.87461900000000004</v>
       </c>
       <c r="O27" s="3">
-        <v>991.90509999999995</v>
+        <v>991.91959999999995</v>
       </c>
       <c r="P27" s="3">
-        <v>46.886068999999999</v>
+        <v>46.886057970000003</v>
       </c>
       <c r="Q27" s="3">
-        <v>-91.052387449999998</v>
+        <v>-91.052313100000006</v>
       </c>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>45145.440937500003</v>
+        <v>45145.441180555557</v>
       </c>
       <c r="B28" s="3">
-        <v>9.6463160000000006</v>
+        <v>9.5931060000000006</v>
       </c>
       <c r="C28" s="3">
-        <v>6.1890840000000003</v>
+        <v>6.6510619999999996</v>
       </c>
       <c r="D28" s="3">
-        <v>93.360889999999998</v>
+        <v>77.848690000000005</v>
       </c>
       <c r="E28" s="3">
-        <v>105.8389</v>
+        <v>93.335830000000001</v>
       </c>
       <c r="F28" s="3">
-        <v>4.9610540000000002E-2</v>
+        <v>4.3441519999999997E-2</v>
       </c>
       <c r="G28" s="3">
-        <v>0.99847640000000004</v>
+        <v>0.99919409999999997</v>
       </c>
       <c r="H28" s="3">
-        <v>6.8795259999999997E-2</v>
+        <v>6.066829E-2</v>
       </c>
       <c r="I28" s="3">
-        <v>0.26707730000000002</v>
+        <v>0.47424119999999997</v>
       </c>
       <c r="J28" s="3">
-        <v>18.871369999999999</v>
+        <v>15.5625</v>
       </c>
       <c r="K28" s="3">
-        <v>0.27319789999999999</v>
+        <v>7.6539859999999997</v>
       </c>
       <c r="L28" s="3">
-        <v>1.256162</v>
+        <v>18.255569999999999</v>
       </c>
       <c r="M28" s="3">
-        <v>0.1920772</v>
+        <v>5.3812870000000004</v>
       </c>
       <c r="N28" s="3">
-        <v>0.90076000000000001</v>
+        <v>0.87390959999999995</v>
       </c>
       <c r="O28" s="3">
-        <v>991.90710000000001</v>
+        <v>991.91959999999995</v>
       </c>
       <c r="P28" s="3">
-        <v>46.886068999999999</v>
+        <v>46.886057970000003</v>
       </c>
       <c r="Q28" s="3">
-        <v>-91.052387449999998</v>
+        <v>-91.052313100000006</v>
       </c>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>45145.440949074073</v>
+        <v>45145.441192129627</v>
       </c>
       <c r="B29" s="3">
-        <v>9.6961750000000002</v>
+        <v>9.7162480000000002</v>
       </c>
       <c r="C29" s="3">
-        <v>6.1573770000000003</v>
+        <v>7.0608820000000003</v>
       </c>
       <c r="D29" s="3">
-        <v>93.378</v>
+        <v>73.204660000000004</v>
       </c>
       <c r="E29" s="3">
-        <v>105.83669999999999</v>
+        <v>92.717939999999999</v>
       </c>
       <c r="F29" s="3">
-        <v>4.9609439999999998E-2</v>
+        <v>4.3105930000000001E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>0.9984769</v>
+        <v>0.99931080000000005</v>
       </c>
       <c r="H29" s="3">
-        <v>6.8793850000000004E-2</v>
+        <v>6.026666E-2</v>
       </c>
       <c r="I29" s="3">
-        <v>0.45191419999999999</v>
+        <v>0.43961309999999998</v>
       </c>
       <c r="J29" s="3">
-        <v>18.84468</v>
+        <v>14.67826</v>
       </c>
       <c r="K29" s="3">
-        <v>0.23161080000000001</v>
+        <v>8.5319610000000008</v>
       </c>
       <c r="L29" s="3">
-        <v>1.158514</v>
+        <v>20.262499999999999</v>
       </c>
       <c r="M29" s="3">
-        <v>0.1628386</v>
+        <v>5.9985660000000003</v>
       </c>
       <c r="N29" s="3">
-        <v>0.88545529999999995</v>
+        <v>0.86640859999999997</v>
       </c>
       <c r="O29" s="3">
-        <v>991.87350000000004</v>
+        <v>991.8691</v>
       </c>
       <c r="P29" s="3">
-        <v>46.886068999999999</v>
+        <v>46.886057889999996</v>
       </c>
       <c r="Q29" s="3">
-        <v>-91.052387449999998</v>
+        <v>-91.052295970000003</v>
       </c>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>45145.440960648149</v>
+        <v>45145.441203703704</v>
       </c>
       <c r="B30" s="3">
-        <v>9.7008360000000007</v>
+        <v>9.7237220000000004</v>
       </c>
       <c r="C30" s="3">
-        <v>6.1566799999999997</v>
+        <v>7.0798759999999996</v>
       </c>
       <c r="D30" s="3">
-        <v>93.379140000000007</v>
+        <v>72.886660000000006</v>
       </c>
       <c r="E30" s="3">
-        <v>105.83920000000001</v>
+        <v>92.624049999999997</v>
       </c>
       <c r="F30" s="3">
-        <v>4.9610620000000001E-2</v>
+        <v>4.3057060000000001E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>0.99847710000000001</v>
+        <v>0.99932399999999999</v>
       </c>
       <c r="H30" s="3">
-        <v>6.8795449999999994E-2</v>
+        <v>6.0205630000000003E-2</v>
       </c>
       <c r="I30" s="3">
-        <v>0.45806599999999997</v>
+        <v>0.43701319999999999</v>
       </c>
       <c r="J30" s="3">
-        <v>18.84308</v>
+        <v>14.606389999999999</v>
       </c>
       <c r="K30" s="3">
-        <v>0.22964490000000001</v>
+        <v>8.6104610000000008</v>
       </c>
       <c r="L30" s="3">
-        <v>1.1538889999999999</v>
+        <v>20.442270000000001</v>
       </c>
       <c r="M30" s="3">
-        <v>0.1614565</v>
+        <v>6.0537570000000001</v>
       </c>
       <c r="N30" s="3">
-        <v>0.88463559999999997</v>
+        <v>0.86599729999999997</v>
       </c>
       <c r="O30" s="3">
-        <v>991.87270000000001</v>
+        <v>991.86630000000002</v>
       </c>
       <c r="P30" s="3">
-        <v>46.886068999999999</v>
+        <v>46.886057889999996</v>
       </c>
       <c r="Q30" s="3">
-        <v>-91.052387449999998</v>
+        <v>-91.052295970000003</v>
       </c>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45145.440972222219</v>
+        <v>45145.44121527778</v>
       </c>
       <c r="B31" s="3">
-        <v>9.7054980000000004</v>
+        <v>9.7311949999999996</v>
       </c>
       <c r="C31" s="3">
-        <v>6.1559819999999998</v>
+        <v>7.0988699999999998</v>
       </c>
       <c r="D31" s="3">
-        <v>93.380260000000007</v>
+        <v>72.568650000000005</v>
       </c>
       <c r="E31" s="3">
-        <v>105.8416</v>
+        <v>92.530159999999995</v>
       </c>
       <c r="F31" s="3">
-        <v>4.9611799999999998E-2</v>
+        <v>4.3008200000000003E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>0.99847730000000001</v>
+        <v>0.99933709999999998</v>
       </c>
       <c r="H31" s="3">
-        <v>6.8797049999999998E-2</v>
+        <v>6.0144599999999999E-2</v>
       </c>
       <c r="I31" s="3">
-        <v>0.46421790000000002</v>
+        <v>0.4344133</v>
       </c>
       <c r="J31" s="3">
-        <v>18.84149</v>
+        <v>14.534509999999999</v>
       </c>
       <c r="K31" s="3">
-        <v>0.22767899999999999</v>
+        <v>8.6889610000000008</v>
       </c>
       <c r="L31" s="3">
-        <v>1.1492629999999999</v>
+        <v>20.622039999999998</v>
       </c>
       <c r="M31" s="3">
-        <v>0.1600743</v>
+        <v>6.1089469999999997</v>
       </c>
       <c r="N31" s="3">
-        <v>0.88381580000000004</v>
+        <v>0.86558590000000002</v>
       </c>
       <c r="O31" s="3">
-        <v>991.87180000000001</v>
+        <v>991.86360000000002</v>
       </c>
       <c r="P31" s="3">
-        <v>46.886068999999999</v>
+        <v>46.886058400000003</v>
       </c>
       <c r="Q31" s="3">
-        <v>-91.052387449999998</v>
+        <v>-91.052272000000002</v>
       </c>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>45145.440983796296</v>
+        <v>45145.44122685185</v>
       </c>
       <c r="B32" s="3">
-        <v>9.5949670000000005</v>
+        <v>9.6263719999999999</v>
       </c>
       <c r="C32" s="3">
-        <v>6.2666690000000003</v>
+        <v>7.1184640000000003</v>
       </c>
       <c r="D32" s="3">
-        <v>93.387209999999996</v>
+        <v>70.668809999999993</v>
       </c>
       <c r="E32" s="3">
-        <v>105.89019999999999</v>
+        <v>91.865759999999995</v>
       </c>
       <c r="F32" s="3">
-        <v>4.9635079999999998E-2</v>
+        <v>4.2649470000000002E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>0.99848530000000002</v>
+        <v>0.9995117</v>
       </c>
       <c r="H32" s="3">
-        <v>6.8868109999999996E-2</v>
+        <v>5.9786279999999997E-2</v>
       </c>
       <c r="I32" s="3">
-        <v>0.42541050000000002</v>
+        <v>0.6427001</v>
       </c>
       <c r="J32" s="3">
-        <v>18.81992</v>
+        <v>12.9941</v>
       </c>
       <c r="K32" s="3">
-        <v>0.85024390000000005</v>
+        <v>10.508089999999999</v>
       </c>
       <c r="L32" s="3">
-        <v>2.5836060000000001</v>
+        <v>24.846599999999999</v>
       </c>
       <c r="M32" s="3">
-        <v>0.59778100000000001</v>
+        <v>7.3879219999999997</v>
       </c>
       <c r="N32" s="3">
-        <v>0.88356979999999996</v>
+        <v>0.86534330000000004</v>
       </c>
       <c r="O32" s="3">
-        <v>991.90530000000001</v>
+        <v>991.91279999999995</v>
       </c>
       <c r="P32" s="3">
-        <v>46.886064779999998</v>
+        <v>46.886058400000003</v>
       </c>
       <c r="Q32" s="3">
-        <v>-91.052371960000002</v>
+        <v>-91.052272000000002</v>
       </c>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>45145.440995370373</v>
+        <v>45145.441238425927</v>
       </c>
       <c r="B33" s="3">
-        <v>9.5902189999999994</v>
+        <v>9.6231969999999993</v>
       </c>
       <c r="C33" s="3">
-        <v>6.2718030000000002</v>
+        <v>7.1283899999999996</v>
       </c>
       <c r="D33" s="3">
-        <v>93.387929999999997</v>
+        <v>70.464330000000004</v>
       </c>
       <c r="E33" s="3">
-        <v>105.8927</v>
+        <v>91.816069999999996</v>
       </c>
       <c r="F33" s="3">
-        <v>4.9636279999999998E-2</v>
+        <v>4.2622590000000002E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>0.99848579999999998</v>
+        <v>0.99952379999999996</v>
       </c>
       <c r="H33" s="3">
-        <v>6.8871829999999995E-2</v>
+        <v>5.975805E-2</v>
       </c>
       <c r="I33" s="3">
-        <v>0.42739280000000002</v>
+        <v>0.65349480000000004</v>
       </c>
       <c r="J33" s="3">
-        <v>18.818190000000001</v>
+        <v>12.89</v>
       </c>
       <c r="K33" s="3">
-        <v>0.88217939999999995</v>
+        <v>10.62739</v>
       </c>
       <c r="L33" s="3">
-        <v>2.6571440000000002</v>
+        <v>25.122969999999999</v>
       </c>
       <c r="M33" s="3">
-        <v>0.6202339</v>
+        <v>7.4717989999999999</v>
       </c>
       <c r="N33" s="3">
-        <v>0.88321850000000002</v>
+        <v>0.86516700000000002</v>
       </c>
       <c r="O33" s="3">
-        <v>991.90629999999999</v>
+        <v>991.9144</v>
       </c>
       <c r="P33" s="3">
-        <v>46.886064779999998</v>
+        <v>46.88605321</v>
       </c>
       <c r="Q33" s="3">
-        <v>-91.052371960000002</v>
+        <v>-91.052256380000003</v>
       </c>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>45145.441006944442</v>
+        <v>45145.441250000003</v>
       </c>
       <c r="B34" s="3">
-        <v>9.5854700000000008</v>
+        <v>9.6200209999999995</v>
       </c>
       <c r="C34" s="3">
-        <v>6.2769380000000004</v>
+        <v>7.1383169999999998</v>
       </c>
       <c r="D34" s="3">
-        <v>93.388660000000002</v>
+        <v>70.259860000000003</v>
       </c>
       <c r="E34" s="3">
-        <v>105.8952</v>
+        <v>91.766390000000001</v>
       </c>
       <c r="F34" s="3">
-        <v>4.9637489999999999E-2</v>
+        <v>4.2595719999999997E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>0.99848619999999999</v>
+        <v>0.99953590000000003</v>
       </c>
       <c r="H34" s="3">
-        <v>6.8875569999999997E-2</v>
+        <v>5.9729829999999998E-2</v>
       </c>
       <c r="I34" s="3">
-        <v>0.42937510000000001</v>
+        <v>0.66428949999999998</v>
       </c>
       <c r="J34" s="3">
-        <v>18.81645</v>
+        <v>12.7859</v>
       </c>
       <c r="K34" s="3">
-        <v>0.91411480000000001</v>
+        <v>10.746689999999999</v>
       </c>
       <c r="L34" s="3">
-        <v>2.7306810000000001</v>
+        <v>25.399349999999998</v>
       </c>
       <c r="M34" s="3">
-        <v>0.64268670000000006</v>
+        <v>7.5556760000000001</v>
       </c>
       <c r="N34" s="3">
-        <v>0.88286719999999996</v>
+        <v>0.8649907</v>
       </c>
       <c r="O34" s="3">
-        <v>991.90729999999996</v>
+        <v>991.91610000000003</v>
       </c>
       <c r="P34" s="3">
-        <v>46.886064779999998</v>
+        <v>46.88605321</v>
       </c>
       <c r="Q34" s="3">
-        <v>-91.052371960000002</v>
+        <v>-91.052256380000003</v>
       </c>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>45145.441018518519</v>
+        <v>45145.441261574073</v>
       </c>
       <c r="B35" s="3">
-        <v>9.7485350000000004</v>
+        <v>9.6872399999999992</v>
       </c>
       <c r="C35" s="3">
-        <v>6.326092</v>
+        <v>7.5687040000000003</v>
       </c>
       <c r="D35" s="3">
-        <v>93.405289999999994</v>
+        <v>68.575400000000002</v>
       </c>
       <c r="E35" s="3">
-        <v>105.9943</v>
+        <v>92.319940000000003</v>
       </c>
       <c r="F35" s="3">
-        <v>4.9684989999999998E-2</v>
+        <v>4.2788260000000002E-2</v>
       </c>
       <c r="G35" s="3">
-        <v>0.99848859999999995</v>
+        <v>0.99959379999999998</v>
       </c>
       <c r="H35" s="3">
-        <v>6.8901309999999993E-2</v>
+        <v>6.0018040000000002E-2</v>
       </c>
       <c r="I35" s="3">
-        <v>0.30029450000000002</v>
+        <v>0.72804550000000001</v>
       </c>
       <c r="J35" s="3">
-        <v>18.792950000000001</v>
+        <v>12.06147</v>
       </c>
       <c r="K35" s="3">
-        <v>1.6031059999999999</v>
+        <v>11.609209999999999</v>
       </c>
       <c r="L35" s="3">
-        <v>4.2841509999999996</v>
+        <v>27.38336</v>
       </c>
       <c r="M35" s="3">
-        <v>1.127095</v>
+        <v>8.1620899999999992</v>
       </c>
       <c r="N35" s="3">
-        <v>0.89843329999999999</v>
+        <v>0.8726256</v>
       </c>
       <c r="O35" s="3">
-        <v>991.93409999999994</v>
+        <v>991.92600000000004</v>
       </c>
       <c r="P35" s="3">
-        <v>46.886064779999998</v>
+        <v>46.88605321</v>
       </c>
       <c r="Q35" s="3">
-        <v>-91.052371960000002</v>
+        <v>-91.052256380000003</v>
       </c>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>45145.441030092596</v>
+        <v>45145.44127314815</v>
       </c>
       <c r="B36" s="3">
-        <v>9.7548770000000005</v>
+        <v>9.6885239999999992</v>
       </c>
       <c r="C36" s="3">
-        <v>6.3311000000000002</v>
+        <v>7.5925580000000004</v>
       </c>
       <c r="D36" s="3">
-        <v>93.406329999999997</v>
+        <v>68.442890000000006</v>
       </c>
       <c r="E36" s="3">
-        <v>106.00060000000001</v>
+        <v>92.335679999999996</v>
       </c>
       <c r="F36" s="3">
-        <v>4.9688030000000001E-2</v>
+        <v>4.2790920000000003E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>0.99848890000000001</v>
+        <v>0.99960079999999996</v>
       </c>
       <c r="H36" s="3">
-        <v>6.8904220000000002E-2</v>
+        <v>6.0025969999999998E-2</v>
       </c>
       <c r="I36" s="3">
-        <v>0.29256779999999999</v>
+        <v>0.73622799999999999</v>
       </c>
       <c r="J36" s="3">
-        <v>18.791219999999999</v>
+        <v>11.98762</v>
       </c>
       <c r="K36" s="3">
-        <v>1.6532560000000001</v>
+        <v>11.69693</v>
       </c>
       <c r="L36" s="3">
-        <v>4.3978840000000003</v>
+        <v>27.586040000000001</v>
       </c>
       <c r="M36" s="3">
-        <v>1.162355</v>
+        <v>8.2237629999999999</v>
       </c>
       <c r="N36" s="3">
-        <v>0.89925659999999996</v>
+        <v>0.87304550000000003</v>
       </c>
       <c r="O36" s="3">
-        <v>991.93619999999999</v>
+        <v>991.92759999999998</v>
       </c>
       <c r="P36" s="3">
-        <v>46.886064779999998</v>
+        <v>46.886050820000001</v>
       </c>
       <c r="Q36" s="3">
-        <v>-91.052371960000002</v>
+        <v>-91.052241480000006</v>
       </c>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>45145.441041666665</v>
+        <v>45145.441284722219</v>
       </c>
       <c r="B37" s="3">
-        <v>9.7612179999999995</v>
+        <v>9.6898090000000003</v>
       </c>
       <c r="C37" s="3">
-        <v>6.3361080000000003</v>
+        <v>7.6164120000000004</v>
       </c>
       <c r="D37" s="3">
-        <v>93.40737</v>
+        <v>68.310379999999995</v>
       </c>
       <c r="E37" s="3">
-        <v>106.00700000000001</v>
+        <v>92.351429999999993</v>
       </c>
       <c r="F37" s="3">
-        <v>4.9691069999999997E-2</v>
+        <v>4.2793579999999998E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>0.99848919999999997</v>
+        <v>0.99960789999999999</v>
       </c>
       <c r="H37" s="3">
-        <v>6.8907129999999997E-2</v>
+        <v>6.0033900000000001E-2</v>
       </c>
       <c r="I37" s="3">
-        <v>0.28484120000000002</v>
+        <v>0.74441049999999997</v>
       </c>
       <c r="J37" s="3">
-        <v>18.7895</v>
+        <v>11.91377</v>
       </c>
       <c r="K37" s="3">
-        <v>1.7034069999999999</v>
+        <v>11.784649999999999</v>
       </c>
       <c r="L37" s="3">
-        <v>4.5116180000000004</v>
+        <v>27.788720000000001</v>
       </c>
       <c r="M37" s="3">
-        <v>1.197614</v>
+        <v>8.2854349999999997</v>
       </c>
       <c r="N37" s="3">
-        <v>0.90007999999999999</v>
+        <v>0.87346539999999995</v>
       </c>
       <c r="O37" s="3">
-        <v>991.9384</v>
+        <v>991.92930000000001</v>
       </c>
       <c r="P37" s="3">
-        <v>46.886062410000001</v>
+        <v>46.886050820000001</v>
       </c>
       <c r="Q37" s="3">
-        <v>-91.052358709999993</v>
+        <v>-91.052241480000006</v>
       </c>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>45145.441053240742</v>
+        <v>45145.441296296296</v>
       </c>
       <c r="B38" s="3">
-        <v>9.6762920000000001</v>
+        <v>9.6533700000000007</v>
       </c>
       <c r="C38" s="3">
-        <v>6.3492649999999999</v>
+        <v>7.9017780000000002</v>
       </c>
       <c r="D38" s="3">
-        <v>92.352059999999994</v>
+        <v>67.807919999999996</v>
       </c>
       <c r="E38" s="3">
-        <v>105.0501</v>
+        <v>92.688010000000006</v>
       </c>
       <c r="F38" s="3">
-        <v>4.9225770000000002E-2</v>
+        <v>4.2925270000000001E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>0.99850910000000004</v>
+        <v>0.99964920000000002</v>
       </c>
       <c r="H38" s="3">
-        <v>6.7643309999999998E-2</v>
+        <v>6.0250459999999999E-2</v>
       </c>
       <c r="I38" s="3">
-        <v>0.46794429999999998</v>
+        <v>0.75665519999999997</v>
       </c>
       <c r="J38" s="3">
-        <v>18.672689999999999</v>
+        <v>11.01559</v>
       </c>
       <c r="K38" s="3">
-        <v>3.4430939999999999</v>
+        <v>12.57572</v>
       </c>
       <c r="L38" s="3">
-        <v>8.5165140000000008</v>
+        <v>29.61326</v>
       </c>
       <c r="M38" s="3">
-        <v>2.4207360000000002</v>
+        <v>9.3230199999999996</v>
       </c>
       <c r="N38" s="3">
-        <v>0.88498350000000003</v>
+        <v>0.8660622</v>
       </c>
       <c r="O38" s="3">
-        <v>991.93010000000004</v>
+        <v>991.87019999999995</v>
       </c>
       <c r="P38" s="3">
-        <v>46.886062410000001</v>
+        <v>46.886050820000001</v>
       </c>
       <c r="Q38" s="3">
-        <v>-91.052358709999993</v>
+        <v>-91.052241480000006</v>
       </c>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>45145.441064814811</v>
+        <v>45145.441307870373</v>
       </c>
       <c r="B39" s="3">
-        <v>9.6752950000000002</v>
+        <v>9.6529050000000005</v>
       </c>
       <c r="C39" s="3">
-        <v>6.3510249999999999</v>
+        <v>7.9269489999999996</v>
       </c>
       <c r="D39" s="3">
-        <v>92.29571</v>
+        <v>67.743489999999994</v>
       </c>
       <c r="E39" s="3">
-        <v>105.0008</v>
+        <v>92.718900000000005</v>
       </c>
       <c r="F39" s="3">
-        <v>4.9201799999999997E-2</v>
+        <v>4.2936849999999999E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>0.99851020000000001</v>
+        <v>0.9996526</v>
       </c>
       <c r="H39" s="3">
-        <v>6.7575949999999996E-2</v>
+        <v>6.0268799999999997E-2</v>
       </c>
       <c r="I39" s="3">
-        <v>0.47501500000000002</v>
+        <v>0.75867289999999998</v>
       </c>
       <c r="J39" s="3">
-        <v>18.665900000000001</v>
+        <v>10.95083</v>
       </c>
       <c r="K39" s="3">
-        <v>3.551501</v>
+        <v>12.637600000000001</v>
       </c>
       <c r="L39" s="3">
-        <v>8.7653649999999992</v>
+        <v>29.755839999999999</v>
       </c>
       <c r="M39" s="3">
-        <v>2.496953</v>
+        <v>9.3928650000000005</v>
       </c>
       <c r="N39" s="3">
-        <v>0.88450799999999996</v>
+        <v>0.86582619999999999</v>
       </c>
       <c r="O39" s="3">
-        <v>991.93020000000001</v>
+        <v>991.86710000000005</v>
       </c>
       <c r="P39" s="3">
-        <v>46.886062410000001</v>
+        <v>46.886050820000001</v>
       </c>
       <c r="Q39" s="3">
-        <v>-91.052358709999993</v>
+        <v>-91.052241480000006</v>
       </c>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>45145.441076388888</v>
+        <v>45145.441319444442</v>
       </c>
       <c r="B40" s="3">
-        <v>9.6742969999999993</v>
+        <v>9.6524389999999993</v>
       </c>
       <c r="C40" s="3">
-        <v>6.3527849999999999</v>
+        <v>7.9521199999999999</v>
       </c>
       <c r="D40" s="3">
-        <v>92.239360000000005</v>
+        <v>67.679060000000007</v>
       </c>
       <c r="E40" s="3">
-        <v>104.9515</v>
+        <v>92.749790000000004</v>
       </c>
       <c r="F40" s="3">
-        <v>4.9177829999999999E-2</v>
+        <v>4.2948430000000003E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>0.99851129999999999</v>
+        <v>0.99965610000000005</v>
       </c>
       <c r="H40" s="3">
-        <v>6.7508589999999993E-2</v>
+        <v>6.0287140000000003E-2</v>
       </c>
       <c r="I40" s="3">
-        <v>0.48208570000000001</v>
+        <v>0.76069070000000005</v>
       </c>
       <c r="J40" s="3">
-        <v>18.659109999999998</v>
+        <v>10.886060000000001</v>
       </c>
       <c r="K40" s="3">
-        <v>3.659907</v>
+        <v>12.69947</v>
       </c>
       <c r="L40" s="3">
-        <v>9.0142150000000001</v>
+        <v>29.898430000000001</v>
       </c>
       <c r="M40" s="3">
-        <v>2.5731709999999999</v>
+        <v>9.4627090000000003</v>
       </c>
       <c r="N40" s="3">
-        <v>0.88403240000000005</v>
+        <v>0.86559030000000003</v>
       </c>
       <c r="O40" s="3">
-        <v>991.93039999999996</v>
+        <v>991.86410000000001</v>
       </c>
       <c r="P40" s="3">
-        <v>46.886062410000001</v>
+        <v>46.886045099999997</v>
       </c>
       <c r="Q40" s="3">
-        <v>-91.052358709999993</v>
+        <v>-91.052226730000001</v>
       </c>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>45145.441087962965</v>
+        <v>45145.441331018519</v>
       </c>
       <c r="B41" s="3">
-        <v>9.6866249999999994</v>
+        <v>9.9258830000000007</v>
       </c>
       <c r="C41" s="3">
-        <v>6.4413929999999997</v>
+        <v>8.1710100000000008</v>
       </c>
       <c r="D41" s="3">
-        <v>87.470590000000001</v>
+        <v>66.882040000000003</v>
       </c>
       <c r="E41" s="3">
-        <v>101.1143</v>
+        <v>91.219120000000004</v>
       </c>
       <c r="F41" s="3">
-        <v>4.7305699999999999E-2</v>
+        <v>4.2140669999999998E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>0.99864640000000005</v>
+        <v>0.99973889999999999</v>
       </c>
       <c r="H41" s="3">
-        <v>6.5633159999999996E-2</v>
+        <v>5.9292440000000002E-2</v>
       </c>
       <c r="I41" s="3">
-        <v>0.4918207</v>
+        <v>0.76435019999999998</v>
       </c>
       <c r="J41" s="3">
-        <v>18.343219999999999</v>
+        <v>10.5297</v>
       </c>
       <c r="K41" s="3">
-        <v>4.8381689999999997</v>
+        <v>13.977040000000001</v>
       </c>
       <c r="L41" s="3">
-        <v>11.761950000000001</v>
+        <v>32.852379999999997</v>
       </c>
       <c r="M41" s="3">
-        <v>3.4015710000000001</v>
+        <v>9.8916070000000005</v>
       </c>
       <c r="N41" s="3">
-        <v>0.9063814</v>
+        <v>0.86533709999999997</v>
       </c>
       <c r="O41" s="3">
-        <v>991.92160000000001</v>
+        <v>991.88779999999997</v>
       </c>
       <c r="P41" s="3">
-        <v>46.886062410000001</v>
+        <v>46.886045099999997</v>
       </c>
       <c r="Q41" s="3">
-        <v>-91.052358709999993</v>
+        <v>-91.052226730000001</v>
       </c>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>45145.441099537034</v>
+        <v>45145.441342592596</v>
       </c>
       <c r="B42" s="3">
-        <v>9.6853580000000008</v>
+        <v>9.9402399999999993</v>
       </c>
       <c r="C42" s="3">
-        <v>6.4463299999999997</v>
+        <v>8.189209</v>
       </c>
       <c r="D42" s="3">
-        <v>87.197890000000001</v>
+        <v>66.82732</v>
       </c>
       <c r="E42" s="3">
-        <v>100.8925</v>
+        <v>91.141139999999993</v>
       </c>
       <c r="F42" s="3">
-        <v>4.7197509999999998E-2</v>
+        <v>4.209856E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>0.99865389999999998</v>
+        <v>0.99974439999999998</v>
       </c>
       <c r="H42" s="3">
-        <v>6.550715E-2</v>
+        <v>5.9241750000000003E-2</v>
       </c>
       <c r="I42" s="3">
-        <v>0.49638569999999999</v>
+        <v>0.76481710000000003</v>
       </c>
       <c r="J42" s="3">
-        <v>18.324110000000001</v>
+        <v>10.490489999999999</v>
       </c>
       <c r="K42" s="3">
-        <v>4.9382760000000001</v>
+        <v>14.06507</v>
       </c>
       <c r="L42" s="3">
-        <v>11.994249999999999</v>
+        <v>33.05583</v>
       </c>
       <c r="M42" s="3">
-        <v>3.4719540000000002</v>
+        <v>9.9379069999999992</v>
       </c>
       <c r="N42" s="3">
-        <v>0.90721459999999998</v>
+        <v>0.86515889999999995</v>
       </c>
       <c r="O42" s="3">
-        <v>991.92100000000005</v>
+        <v>991.88779999999997</v>
       </c>
       <c r="P42" s="3">
-        <v>46.886062410000001</v>
+        <v>46.886045099999997</v>
       </c>
       <c r="Q42" s="3">
-        <v>-91.052358709999993</v>
+        <v>-91.052226730000001</v>
       </c>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>45145.441111111111</v>
+        <v>45145.441354166665</v>
       </c>
       <c r="B43" s="3">
-        <v>9.6840919999999997</v>
+        <v>9.9545969999999997</v>
       </c>
       <c r="C43" s="3">
-        <v>6.4512650000000002</v>
+        <v>8.2074069999999999</v>
       </c>
       <c r="D43" s="3">
-        <v>86.925190000000001</v>
+        <v>66.772589999999994</v>
       </c>
       <c r="E43" s="3">
-        <v>100.6707</v>
+        <v>91.063159999999996</v>
       </c>
       <c r="F43" s="3">
-        <v>4.7089319999999997E-2</v>
+        <v>4.2056450000000002E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>0.99866140000000003</v>
+        <v>0.99974989999999997</v>
       </c>
       <c r="H43" s="3">
-        <v>6.5381140000000004E-2</v>
+        <v>5.9191059999999997E-2</v>
       </c>
       <c r="I43" s="3">
-        <v>0.50095069999999997</v>
+        <v>0.76528390000000002</v>
       </c>
       <c r="J43" s="3">
-        <v>18.305009999999999</v>
+        <v>10.451269999999999</v>
       </c>
       <c r="K43" s="3">
-        <v>5.0383829999999996</v>
+        <v>14.1531</v>
       </c>
       <c r="L43" s="3">
-        <v>12.226559999999999</v>
+        <v>33.259270000000001</v>
       </c>
       <c r="M43" s="3">
-        <v>3.5423360000000002</v>
+        <v>9.9842069999999996</v>
       </c>
       <c r="N43" s="3">
-        <v>0.90804779999999996</v>
+        <v>0.86498059999999999</v>
       </c>
       <c r="O43" s="3">
-        <v>991.9203</v>
+        <v>991.88789999999995</v>
       </c>
       <c r="P43" s="3">
-        <v>46.886059199999998</v>
+        <v>46.886038569999997</v>
       </c>
       <c r="Q43" s="3">
-        <v>-91.052340450000003</v>
+        <v>-91.052216319999999</v>
       </c>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>45145.441122685188</v>
+        <v>45145.441365740742</v>
       </c>
       <c r="B44" s="3">
-        <v>9.5728469999999994</v>
+        <v>11.25944</v>
       </c>
       <c r="C44" s="3">
-        <v>6.7521979999999999</v>
+        <v>8.385859</v>
       </c>
       <c r="D44" s="3">
-        <v>82.156199999999998</v>
+        <v>64.857789999999994</v>
       </c>
       <c r="E44" s="3">
-        <v>97.100040000000007</v>
+        <v>92.088269999999994</v>
       </c>
       <c r="F44" s="3">
-        <v>4.5338860000000002E-2</v>
+        <v>4.2507969999999999E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>0.9988224</v>
+        <v>0.99978789999999995</v>
       </c>
       <c r="H44" s="3">
-        <v>6.3084979999999999E-2</v>
+        <v>5.9857380000000002E-2</v>
       </c>
       <c r="I44" s="3">
-        <v>0.50821510000000003</v>
+        <v>0.95882230000000002</v>
       </c>
       <c r="J44" s="3">
-        <v>16.988050000000001</v>
+        <v>9.8859399999999997</v>
       </c>
       <c r="K44" s="3">
-        <v>5.926126</v>
+        <v>14.36261</v>
       </c>
       <c r="L44" s="3">
-        <v>14.28275</v>
+        <v>33.497509999999998</v>
       </c>
       <c r="M44" s="3">
-        <v>4.1664810000000001</v>
+        <v>10.118880000000001</v>
       </c>
       <c r="N44" s="3">
-        <v>0.87846329999999995</v>
+        <v>0.85739829999999995</v>
       </c>
       <c r="O44" s="3">
-        <v>991.92</v>
+        <v>991.91390000000001</v>
       </c>
       <c r="P44" s="3">
-        <v>46.886059199999998</v>
+        <v>46.886038569999997</v>
       </c>
       <c r="Q44" s="3">
-        <v>-91.052340450000003</v>
+        <v>-91.052216319999999</v>
       </c>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>45145.441134259258</v>
+        <v>45145.441377314812</v>
       </c>
       <c r="B45" s="3">
-        <v>9.5670909999999996</v>
+        <v>11.33703</v>
       </c>
       <c r="C45" s="3">
-        <v>6.7703720000000001</v>
+        <v>8.4004320000000003</v>
       </c>
       <c r="D45" s="3">
-        <v>81.799589999999995</v>
+        <v>64.735209999999995</v>
       </c>
       <c r="E45" s="3">
-        <v>96.827619999999996</v>
+        <v>92.109769999999997</v>
       </c>
       <c r="F45" s="3">
-        <v>4.5205490000000001E-2</v>
+        <v>4.2514429999999999E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>0.99883390000000005</v>
+        <v>0.99979189999999996</v>
       </c>
       <c r="H45" s="3">
-        <v>6.2922019999999995E-2</v>
+        <v>5.9871349999999997E-2</v>
       </c>
       <c r="I45" s="3">
-        <v>0.50875939999999997</v>
+        <v>0.96949289999999999</v>
       </c>
       <c r="J45" s="3">
-        <v>16.910019999999999</v>
+        <v>9.8474170000000001</v>
       </c>
       <c r="K45" s="3">
-        <v>5.9982819999999997</v>
+        <v>14.402469999999999</v>
       </c>
       <c r="L45" s="3">
-        <v>14.45026</v>
+        <v>33.5762</v>
       </c>
       <c r="M45" s="3">
-        <v>4.217212</v>
+        <v>10.13538</v>
       </c>
       <c r="N45" s="3">
-        <v>0.87731729999999997</v>
+        <v>0.85698240000000003</v>
       </c>
       <c r="O45" s="3">
-        <v>991.91989999999998</v>
+        <v>991.91579999999999</v>
       </c>
       <c r="P45" s="3">
-        <v>46.886059199999998</v>
+        <v>46.886038569999997</v>
       </c>
       <c r="Q45" s="3">
-        <v>-91.052340450000003</v>
+        <v>-91.052216319999999</v>
       </c>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>45145.441145833334</v>
+        <v>45145.441388888888</v>
       </c>
       <c r="B46" s="3">
-        <v>9.5613349999999997</v>
+        <v>11.41461</v>
       </c>
       <c r="C46" s="3">
-        <v>6.7885470000000003</v>
+        <v>8.4150050000000007</v>
       </c>
       <c r="D46" s="3">
-        <v>81.442989999999995</v>
+        <v>64.612629999999996</v>
       </c>
       <c r="E46" s="3">
-        <v>96.555210000000002</v>
+        <v>92.131259999999997</v>
       </c>
       <c r="F46" s="3">
-        <v>4.5072130000000002E-2</v>
+        <v>4.25209E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>0.99884539999999999</v>
+        <v>0.99979580000000001</v>
       </c>
       <c r="H46" s="3">
-        <v>6.275907E-2</v>
+        <v>5.9885319999999999E-2</v>
       </c>
       <c r="I46" s="3">
-        <v>0.50930379999999997</v>
+        <v>0.98016340000000002</v>
       </c>
       <c r="J46" s="3">
-        <v>16.831990000000001</v>
+        <v>9.8088940000000004</v>
       </c>
       <c r="K46" s="3">
-        <v>6.0704380000000002</v>
+        <v>14.44233</v>
       </c>
       <c r="L46" s="3">
-        <v>14.61777</v>
+        <v>33.654899999999998</v>
       </c>
       <c r="M46" s="3">
-        <v>4.2679429999999998</v>
+        <v>10.15189</v>
       </c>
       <c r="N46" s="3">
-        <v>0.87617129999999999</v>
+        <v>0.85656639999999995</v>
       </c>
       <c r="O46" s="3">
-        <v>991.91959999999995</v>
+        <v>991.91780000000006</v>
       </c>
       <c r="P46" s="3">
-        <v>46.886059930000002</v>
+        <v>46.886038569999997</v>
       </c>
       <c r="Q46" s="3">
-        <v>-91.052327230000003</v>
+        <v>-91.052216319999999</v>
       </c>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>45145.441157407404</v>
+        <v>45145.441400462965</v>
       </c>
       <c r="B47" s="3">
-        <v>9.5943109999999994</v>
+        <v>13.37236</v>
       </c>
       <c r="C47" s="3">
-        <v>6.6531909999999996</v>
+        <v>8.6486999999999998</v>
       </c>
       <c r="D47" s="3">
-        <v>78.385059999999996</v>
+        <v>64.402410000000003</v>
       </c>
       <c r="E47" s="3">
-        <v>93.789680000000004</v>
+        <v>91.870419999999996</v>
       </c>
       <c r="F47" s="3">
-        <v>4.366925E-2</v>
+        <v>4.2397770000000001E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>0.99915330000000002</v>
+        <v>0.99980029999999998</v>
       </c>
       <c r="H47" s="3">
-        <v>6.0963290000000003E-2</v>
+        <v>5.9901070000000001E-2</v>
       </c>
       <c r="I47" s="3">
-        <v>0.47743910000000001</v>
+        <v>1.152606</v>
       </c>
       <c r="J47" s="3">
-        <v>15.739890000000001</v>
+        <v>9.3820510000000006</v>
       </c>
       <c r="K47" s="3">
-        <v>7.4632040000000002</v>
+        <v>14.46402</v>
       </c>
       <c r="L47" s="3">
-        <v>17.81671</v>
+        <v>33.777389999999997</v>
       </c>
       <c r="M47" s="3">
-        <v>5.2471550000000002</v>
+        <v>10.169219999999999</v>
       </c>
       <c r="N47" s="3">
-        <v>0.87532840000000001</v>
+        <v>0.87166180000000004</v>
       </c>
       <c r="O47" s="3">
-        <v>991.91959999999995</v>
+        <v>991.90160000000003</v>
       </c>
       <c r="P47" s="3">
-        <v>46.886059930000002</v>
+        <v>46.886038569999997</v>
       </c>
       <c r="Q47" s="3">
-        <v>-91.052327230000003</v>
+        <v>-91.052216319999999</v>
       </c>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>45145.441168981481</v>
+        <v>45145.441412037035</v>
       </c>
       <c r="B48" s="3">
-        <v>9.5937079999999995</v>
+        <v>13.510020000000001</v>
       </c>
       <c r="C48" s="3">
-        <v>6.652126</v>
+        <v>8.6655920000000002</v>
       </c>
       <c r="D48" s="3">
-        <v>78.116870000000006</v>
+        <v>64.349249999999998</v>
       </c>
       <c r="E48" s="3">
-        <v>93.562749999999994</v>
+        <v>91.878559999999993</v>
       </c>
       <c r="F48" s="3">
-        <v>4.3555389999999999E-2</v>
+        <v>4.2400930000000003E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>0.9991738</v>
+        <v>0.99980139999999995</v>
       </c>
       <c r="H48" s="3">
-        <v>6.0815790000000002E-2</v>
+        <v>5.991672E-2</v>
       </c>
       <c r="I48" s="3">
-        <v>0.47584009999999999</v>
+        <v>1.166445</v>
       </c>
       <c r="J48" s="3">
-        <v>15.651199999999999</v>
+        <v>9.3459590000000006</v>
       </c>
       <c r="K48" s="3">
-        <v>7.5585950000000004</v>
+        <v>14.46949</v>
       </c>
       <c r="L48" s="3">
-        <v>18.03614</v>
+        <v>33.788719999999998</v>
       </c>
       <c r="M48" s="3">
-        <v>5.3142209999999999</v>
+        <v>10.173069999999999</v>
       </c>
       <c r="N48" s="3">
-        <v>0.87461900000000004</v>
+        <v>0.87234009999999995</v>
       </c>
       <c r="O48" s="3">
-        <v>991.91959999999995</v>
+        <v>991.90120000000002</v>
       </c>
       <c r="P48" s="3">
-        <v>46.886057970000003</v>
+        <v>46.886038569999997</v>
       </c>
       <c r="Q48" s="3">
-        <v>-91.052313100000006</v>
+        <v>-91.052216319999999</v>
       </c>
       <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>45145.441180555557</v>
-      </c>
-      <c r="B49" s="3">
-        <v>9.5931060000000006</v>
-      </c>
-      <c r="C49" s="3">
-        <v>6.6510619999999996</v>
-      </c>
-      <c r="D49" s="3">
-        <v>77.848690000000005</v>
-      </c>
-      <c r="E49" s="3">
-        <v>93.335830000000001</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4.3441519999999997E-2</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0.99919409999999997</v>
-      </c>
-      <c r="H49" s="3">
-        <v>6.066829E-2</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0.47424119999999997</v>
-      </c>
-      <c r="J49" s="3">
-        <v>15.5625</v>
-      </c>
-      <c r="K49" s="3">
-        <v>7.6539859999999997</v>
-      </c>
-      <c r="L49" s="3">
-        <v>18.255569999999999</v>
-      </c>
-      <c r="M49" s="3">
-        <v>5.3812870000000004</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0.87390959999999995</v>
-      </c>
-      <c r="O49" s="3">
-        <v>991.91959999999995</v>
-      </c>
-      <c r="P49" s="3">
-        <v>46.886057970000003</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>-91.052313100000006</v>
-      </c>
-      <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>45145.441192129627</v>
-      </c>
-      <c r="B50" s="3">
-        <v>9.7162480000000002</v>
-      </c>
-      <c r="C50" s="3">
-        <v>7.0608820000000003</v>
-      </c>
-      <c r="D50" s="3">
-        <v>73.204660000000004</v>
-      </c>
-      <c r="E50" s="3">
-        <v>92.717939999999999</v>
-      </c>
-      <c r="F50" s="3">
-        <v>4.3105930000000001E-2</v>
-      </c>
-      <c r="G50" s="3">
-        <v>0.99931080000000005</v>
-      </c>
-      <c r="H50" s="3">
-        <v>6.026666E-2</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0.43961309999999998</v>
-      </c>
-      <c r="J50" s="3">
-        <v>14.67826</v>
-      </c>
-      <c r="K50" s="3">
-        <v>8.5319610000000008</v>
-      </c>
-      <c r="L50" s="3">
-        <v>20.262499999999999</v>
-      </c>
-      <c r="M50" s="3">
-        <v>5.9985660000000003</v>
-      </c>
-      <c r="N50" s="3">
-        <v>0.86640859999999997</v>
-      </c>
-      <c r="O50" s="3">
-        <v>991.8691</v>
-      </c>
-      <c r="P50" s="3">
-        <v>46.886057889999996</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>-91.052295970000003</v>
-      </c>
-      <c r="R50" s="3"/>
-    </row>
-    <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>45145.441203703704</v>
-      </c>
-      <c r="B51" s="3">
-        <v>9.7237220000000004</v>
-      </c>
-      <c r="C51" s="3">
-        <v>7.0798759999999996</v>
-      </c>
-      <c r="D51" s="3">
-        <v>72.886660000000006</v>
-      </c>
-      <c r="E51" s="3">
-        <v>92.624049999999997</v>
-      </c>
-      <c r="F51" s="3">
-        <v>4.3057060000000001E-2</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0.99932399999999999</v>
-      </c>
-      <c r="H51" s="3">
-        <v>6.0205630000000003E-2</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0.43701319999999999</v>
-      </c>
-      <c r="J51" s="3">
-        <v>14.606389999999999</v>
-      </c>
-      <c r="K51" s="3">
-        <v>8.6104610000000008</v>
-      </c>
-      <c r="L51" s="3">
-        <v>20.442270000000001</v>
-      </c>
-      <c r="M51" s="3">
-        <v>6.0537570000000001</v>
-      </c>
-      <c r="N51" s="3">
-        <v>0.86599729999999997</v>
-      </c>
-      <c r="O51" s="3">
-        <v>991.86630000000002</v>
-      </c>
-      <c r="P51" s="3">
-        <v>46.886057889999996</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>-91.052295970000003</v>
-      </c>
-      <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>45145.44121527778</v>
-      </c>
-      <c r="B52" s="3">
-        <v>9.7311949999999996</v>
-      </c>
-      <c r="C52" s="3">
-        <v>7.0988699999999998</v>
-      </c>
-      <c r="D52" s="3">
-        <v>72.568650000000005</v>
-      </c>
-      <c r="E52" s="3">
-        <v>92.530159999999995</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4.3008200000000003E-2</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0.99933709999999998</v>
-      </c>
-      <c r="H52" s="3">
-        <v>6.0144599999999999E-2</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0.4344133</v>
-      </c>
-      <c r="J52" s="3">
-        <v>14.534509999999999</v>
-      </c>
-      <c r="K52" s="3">
-        <v>8.6889610000000008</v>
-      </c>
-      <c r="L52" s="3">
-        <v>20.622039999999998</v>
-      </c>
-      <c r="M52" s="3">
-        <v>6.1089469999999997</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0.86558590000000002</v>
-      </c>
-      <c r="O52" s="3">
-        <v>991.86360000000002</v>
-      </c>
-      <c r="P52" s="3">
-        <v>46.886058400000003</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>-91.052272000000002</v>
-      </c>
-      <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>45145.44122685185</v>
-      </c>
-      <c r="B53" s="3">
-        <v>9.6263719999999999</v>
-      </c>
-      <c r="C53" s="3">
-        <v>7.1184640000000003</v>
-      </c>
-      <c r="D53" s="3">
-        <v>70.668809999999993</v>
-      </c>
-      <c r="E53" s="3">
-        <v>91.865759999999995</v>
-      </c>
-      <c r="F53" s="3">
-        <v>4.2649470000000002E-2</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0.9995117</v>
-      </c>
-      <c r="H53" s="3">
-        <v>5.9786279999999997E-2</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0.6427001</v>
-      </c>
-      <c r="J53" s="3">
-        <v>12.9941</v>
-      </c>
-      <c r="K53" s="3">
-        <v>10.508089999999999</v>
-      </c>
-      <c r="L53" s="3">
-        <v>24.846599999999999</v>
-      </c>
-      <c r="M53" s="3">
-        <v>7.3879219999999997</v>
-      </c>
-      <c r="N53" s="3">
-        <v>0.86534330000000004</v>
-      </c>
-      <c r="O53" s="3">
-        <v>991.91279999999995</v>
-      </c>
-      <c r="P53" s="3">
-        <v>46.886058400000003</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>-91.052272000000002</v>
-      </c>
-      <c r="R53" s="3"/>
-    </row>
-    <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>45145.441238425927</v>
-      </c>
-      <c r="B54" s="3">
-        <v>9.6231969999999993</v>
-      </c>
-      <c r="C54" s="3">
-        <v>7.1283899999999996</v>
-      </c>
-      <c r="D54" s="3">
-        <v>70.464330000000004</v>
-      </c>
-      <c r="E54" s="3">
-        <v>91.816069999999996</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4.2622590000000002E-2</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0.99952379999999996</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5.975805E-2</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0.65349480000000004</v>
-      </c>
-      <c r="J54" s="3">
-        <v>12.89</v>
-      </c>
-      <c r="K54" s="3">
-        <v>10.62739</v>
-      </c>
-      <c r="L54" s="3">
-        <v>25.122969999999999</v>
-      </c>
-      <c r="M54" s="3">
-        <v>7.4717989999999999</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0.86516700000000002</v>
-      </c>
-      <c r="O54" s="3">
-        <v>991.9144</v>
-      </c>
-      <c r="P54" s="3">
-        <v>46.88605321</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>-91.052256380000003</v>
-      </c>
-      <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>45145.441250000003</v>
-      </c>
-      <c r="B55" s="3">
-        <v>9.6200209999999995</v>
-      </c>
-      <c r="C55" s="3">
-        <v>7.1383169999999998</v>
-      </c>
-      <c r="D55" s="3">
-        <v>70.259860000000003</v>
-      </c>
-      <c r="E55" s="3">
-        <v>91.766390000000001</v>
-      </c>
-      <c r="F55" s="3">
-        <v>4.2595719999999997E-2</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0.99953590000000003</v>
-      </c>
-      <c r="H55" s="3">
-        <v>5.9729829999999998E-2</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0.66428949999999998</v>
-      </c>
-      <c r="J55" s="3">
-        <v>12.7859</v>
-      </c>
-      <c r="K55" s="3">
-        <v>10.746689999999999</v>
-      </c>
-      <c r="L55" s="3">
-        <v>25.399349999999998</v>
-      </c>
-      <c r="M55" s="3">
-        <v>7.5556760000000001</v>
-      </c>
-      <c r="N55" s="3">
-        <v>0.8649907</v>
-      </c>
-      <c r="O55" s="3">
-        <v>991.91610000000003</v>
-      </c>
-      <c r="P55" s="3">
-        <v>46.88605321</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>-91.052256380000003</v>
-      </c>
-      <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>45145.441261574073</v>
-      </c>
-      <c r="B56" s="3">
-        <v>9.6872399999999992</v>
-      </c>
-      <c r="C56" s="3">
-        <v>7.5687040000000003</v>
-      </c>
-      <c r="D56" s="3">
-        <v>68.575400000000002</v>
-      </c>
-      <c r="E56" s="3">
-        <v>92.319940000000003</v>
-      </c>
-      <c r="F56" s="3">
-        <v>4.2788260000000002E-2</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0.99959379999999998</v>
-      </c>
-      <c r="H56" s="3">
-        <v>6.0018040000000002E-2</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0.72804550000000001</v>
-      </c>
-      <c r="J56" s="3">
-        <v>12.06147</v>
-      </c>
-      <c r="K56" s="3">
-        <v>11.609209999999999</v>
-      </c>
-      <c r="L56" s="3">
-        <v>27.38336</v>
-      </c>
-      <c r="M56" s="3">
-        <v>8.1620899999999992</v>
-      </c>
-      <c r="N56" s="3">
-        <v>0.8726256</v>
-      </c>
-      <c r="O56" s="3">
-        <v>991.92600000000004</v>
-      </c>
-      <c r="P56" s="3">
-        <v>46.88605321</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>-91.052256380000003</v>
-      </c>
-      <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>45145.44127314815</v>
-      </c>
-      <c r="B57" s="3">
-        <v>9.6885239999999992</v>
-      </c>
-      <c r="C57" s="3">
-        <v>7.5925580000000004</v>
-      </c>
-      <c r="D57" s="3">
-        <v>68.442890000000006</v>
-      </c>
-      <c r="E57" s="3">
-        <v>92.335679999999996</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4.2790920000000003E-2</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0.99960079999999996</v>
-      </c>
-      <c r="H57" s="3">
-        <v>6.0025969999999998E-2</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0.73622799999999999</v>
-      </c>
-      <c r="J57" s="3">
-        <v>11.98762</v>
-      </c>
-      <c r="K57" s="3">
-        <v>11.69693</v>
-      </c>
-      <c r="L57" s="3">
-        <v>27.586040000000001</v>
-      </c>
-      <c r="M57" s="3">
-        <v>8.2237629999999999</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0.87304550000000003</v>
-      </c>
-      <c r="O57" s="3">
-        <v>991.92759999999998</v>
-      </c>
-      <c r="P57" s="3">
-        <v>46.886050820000001</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>-91.052241480000006</v>
-      </c>
-      <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>45145.441284722219</v>
-      </c>
-      <c r="B58" s="3">
-        <v>9.6898090000000003</v>
-      </c>
-      <c r="C58" s="3">
-        <v>7.6164120000000004</v>
-      </c>
-      <c r="D58" s="3">
-        <v>68.310379999999995</v>
-      </c>
-      <c r="E58" s="3">
-        <v>92.351429999999993</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4.2793579999999998E-2</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0.99960789999999999</v>
-      </c>
-      <c r="H58" s="3">
-        <v>6.0033900000000001E-2</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0.74441049999999997</v>
-      </c>
-      <c r="J58" s="3">
-        <v>11.91377</v>
-      </c>
-      <c r="K58" s="3">
-        <v>11.784649999999999</v>
-      </c>
-      <c r="L58" s="3">
-        <v>27.788720000000001</v>
-      </c>
-      <c r="M58" s="3">
-        <v>8.2854349999999997</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0.87346539999999995</v>
-      </c>
-      <c r="O58" s="3">
-        <v>991.92930000000001</v>
-      </c>
-      <c r="P58" s="3">
-        <v>46.886050820000001</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>-91.052241480000006</v>
-      </c>
-      <c r="R58" s="3"/>
-    </row>
-    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>45145.441296296296</v>
-      </c>
-      <c r="B59" s="3">
-        <v>9.6533700000000007</v>
-      </c>
-      <c r="C59" s="3">
-        <v>7.9017780000000002</v>
-      </c>
-      <c r="D59" s="3">
-        <v>67.807919999999996</v>
-      </c>
-      <c r="E59" s="3">
-        <v>92.688010000000006</v>
-      </c>
-      <c r="F59" s="3">
-        <v>4.2925270000000001E-2</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0.99964920000000002</v>
-      </c>
-      <c r="H59" s="3">
-        <v>6.0250459999999999E-2</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0.75665519999999997</v>
-      </c>
-      <c r="J59" s="3">
-        <v>11.01559</v>
-      </c>
-      <c r="K59" s="3">
-        <v>12.57572</v>
-      </c>
-      <c r="L59" s="3">
-        <v>29.61326</v>
-      </c>
-      <c r="M59" s="3">
-        <v>9.3230199999999996</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0.8660622</v>
-      </c>
-      <c r="O59" s="3">
-        <v>991.87019999999995</v>
-      </c>
-      <c r="P59" s="3">
-        <v>46.886050820000001</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>-91.052241480000006</v>
-      </c>
-      <c r="R59" s="3"/>
-    </row>
-    <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>45145.441307870373</v>
-      </c>
-      <c r="B60" s="3">
-        <v>9.6529050000000005</v>
-      </c>
-      <c r="C60" s="3">
-        <v>7.9269489999999996</v>
-      </c>
-      <c r="D60" s="3">
-        <v>67.743489999999994</v>
-      </c>
-      <c r="E60" s="3">
-        <v>92.718900000000005</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4.2936849999999999E-2</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0.9996526</v>
-      </c>
-      <c r="H60" s="3">
-        <v>6.0268799999999997E-2</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0.75867289999999998</v>
-      </c>
-      <c r="J60" s="3">
-        <v>10.95083</v>
-      </c>
-      <c r="K60" s="3">
-        <v>12.637600000000001</v>
-      </c>
-      <c r="L60" s="3">
-        <v>29.755839999999999</v>
-      </c>
-      <c r="M60" s="3">
-        <v>9.3928650000000005</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0.86582619999999999</v>
-      </c>
-      <c r="O60" s="3">
-        <v>991.86710000000005</v>
-      </c>
-      <c r="P60" s="3">
-        <v>46.886050820000001</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>-91.052241480000006</v>
-      </c>
-      <c r="R60" s="3"/>
-    </row>
-    <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>45145.441319444442</v>
-      </c>
-      <c r="B61" s="3">
-        <v>9.6524389999999993</v>
-      </c>
-      <c r="C61" s="3">
-        <v>7.9521199999999999</v>
-      </c>
-      <c r="D61" s="3">
-        <v>67.679060000000007</v>
-      </c>
-      <c r="E61" s="3">
-        <v>92.749790000000004</v>
-      </c>
-      <c r="F61" s="3">
-        <v>4.2948430000000003E-2</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0.99965610000000005</v>
-      </c>
-      <c r="H61" s="3">
-        <v>6.0287140000000003E-2</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0.76069070000000005</v>
-      </c>
-      <c r="J61" s="3">
-        <v>10.886060000000001</v>
-      </c>
-      <c r="K61" s="3">
-        <v>12.69947</v>
-      </c>
-      <c r="L61" s="3">
-        <v>29.898430000000001</v>
-      </c>
-      <c r="M61" s="3">
-        <v>9.4627090000000003</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0.86559030000000003</v>
-      </c>
-      <c r="O61" s="3">
-        <v>991.86410000000001</v>
-      </c>
-      <c r="P61" s="3">
-        <v>46.886045099999997</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>-91.052226730000001</v>
-      </c>
-      <c r="R61" s="3"/>
-    </row>
-    <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>45145.441331018519</v>
-      </c>
-      <c r="B62" s="3">
-        <v>9.9258830000000007</v>
-      </c>
-      <c r="C62" s="3">
-        <v>8.1710100000000008</v>
-      </c>
-      <c r="D62" s="3">
-        <v>66.882040000000003</v>
-      </c>
-      <c r="E62" s="3">
-        <v>91.219120000000004</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4.2140669999999998E-2</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0.99973889999999999</v>
-      </c>
-      <c r="H62" s="3">
-        <v>5.9292440000000002E-2</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0.76435019999999998</v>
-      </c>
-      <c r="J62" s="3">
-        <v>10.5297</v>
-      </c>
-      <c r="K62" s="3">
-        <v>13.977040000000001</v>
-      </c>
-      <c r="L62" s="3">
-        <v>32.852379999999997</v>
-      </c>
-      <c r="M62" s="3">
-        <v>9.8916070000000005</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0.86533709999999997</v>
-      </c>
-      <c r="O62" s="3">
-        <v>991.88779999999997</v>
-      </c>
-      <c r="P62" s="3">
-        <v>46.886045099999997</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>-91.052226730000001</v>
-      </c>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>45145.441342592596</v>
-      </c>
-      <c r="B63" s="3">
-        <v>9.9402399999999993</v>
-      </c>
-      <c r="C63" s="3">
-        <v>8.189209</v>
-      </c>
-      <c r="D63" s="3">
-        <v>66.82732</v>
-      </c>
-      <c r="E63" s="3">
-        <v>91.141139999999993</v>
-      </c>
-      <c r="F63" s="3">
-        <v>4.209856E-2</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0.99974439999999998</v>
-      </c>
-      <c r="H63" s="3">
-        <v>5.9241750000000003E-2</v>
-      </c>
-      <c r="I63" s="3">
-        <v>0.76481710000000003</v>
-      </c>
-      <c r="J63" s="3">
-        <v>10.490489999999999</v>
-      </c>
-      <c r="K63" s="3">
-        <v>14.06507</v>
-      </c>
-      <c r="L63" s="3">
-        <v>33.05583</v>
-      </c>
-      <c r="M63" s="3">
-        <v>9.9379069999999992</v>
-      </c>
-      <c r="N63" s="3">
-        <v>0.86515889999999995</v>
-      </c>
-      <c r="O63" s="3">
-        <v>991.88779999999997</v>
-      </c>
-      <c r="P63" s="3">
-        <v>46.886045099999997</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>-91.052226730000001</v>
-      </c>
-      <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>45145.441354166665</v>
-      </c>
-      <c r="B64" s="3">
-        <v>9.9545969999999997</v>
-      </c>
-      <c r="C64" s="3">
-        <v>8.2074069999999999</v>
-      </c>
-      <c r="D64" s="3">
-        <v>66.772589999999994</v>
-      </c>
-      <c r="E64" s="3">
-        <v>91.063159999999996</v>
-      </c>
-      <c r="F64" s="3">
-        <v>4.2056450000000002E-2</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0.99974989999999997</v>
-      </c>
-      <c r="H64" s="3">
-        <v>5.9191059999999997E-2</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0.76528390000000002</v>
-      </c>
-      <c r="J64" s="3">
-        <v>10.451269999999999</v>
-      </c>
-      <c r="K64" s="3">
-        <v>14.1531</v>
-      </c>
-      <c r="L64" s="3">
-        <v>33.259270000000001</v>
-      </c>
-      <c r="M64" s="3">
-        <v>9.9842069999999996</v>
-      </c>
-      <c r="N64" s="3">
-        <v>0.86498059999999999</v>
-      </c>
-      <c r="O64" s="3">
-        <v>991.88789999999995</v>
-      </c>
-      <c r="P64" s="3">
-        <v>46.886038569999997</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>-91.052216319999999</v>
-      </c>
-      <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>45145.441365740742</v>
-      </c>
-      <c r="B65" s="3">
-        <v>11.25944</v>
-      </c>
-      <c r="C65" s="3">
-        <v>8.385859</v>
-      </c>
-      <c r="D65" s="3">
-        <v>64.857789999999994</v>
-      </c>
-      <c r="E65" s="3">
-        <v>92.088269999999994</v>
-      </c>
-      <c r="F65" s="3">
-        <v>4.2507969999999999E-2</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0.99978789999999995</v>
-      </c>
-      <c r="H65" s="3">
-        <v>5.9857380000000002E-2</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0.95882230000000002</v>
-      </c>
-      <c r="J65" s="3">
-        <v>9.8859399999999997</v>
-      </c>
-      <c r="K65" s="3">
-        <v>14.36261</v>
-      </c>
-      <c r="L65" s="3">
-        <v>33.497509999999998</v>
-      </c>
-      <c r="M65" s="3">
-        <v>10.118880000000001</v>
-      </c>
-      <c r="N65" s="3">
-        <v>0.85739829999999995</v>
-      </c>
-      <c r="O65" s="3">
-        <v>991.91390000000001</v>
-      </c>
-      <c r="P65" s="3">
-        <v>46.886038569999997</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>-91.052216319999999</v>
-      </c>
-      <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>45145.441377314812</v>
-      </c>
-      <c r="B66" s="3">
-        <v>11.33703</v>
-      </c>
-      <c r="C66" s="3">
-        <v>8.4004320000000003</v>
-      </c>
-      <c r="D66" s="3">
-        <v>64.735209999999995</v>
-      </c>
-      <c r="E66" s="3">
-        <v>92.109769999999997</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4.2514429999999999E-2</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0.99979189999999996</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5.9871349999999997E-2</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0.96949289999999999</v>
-      </c>
-      <c r="J66" s="3">
-        <v>9.8474170000000001</v>
-      </c>
-      <c r="K66" s="3">
-        <v>14.402469999999999</v>
-      </c>
-      <c r="L66" s="3">
-        <v>33.5762</v>
-      </c>
-      <c r="M66" s="3">
-        <v>10.13538</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0.85698240000000003</v>
-      </c>
-      <c r="O66" s="3">
-        <v>991.91579999999999</v>
-      </c>
-      <c r="P66" s="3">
-        <v>46.886038569999997</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>-91.052216319999999</v>
-      </c>
-      <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>45145.441388888888</v>
-      </c>
-      <c r="B67" s="3">
-        <v>11.41461</v>
-      </c>
-      <c r="C67" s="3">
-        <v>8.4150050000000007</v>
-      </c>
-      <c r="D67" s="3">
-        <v>64.612629999999996</v>
-      </c>
-      <c r="E67" s="3">
-        <v>92.131259999999997</v>
-      </c>
-      <c r="F67" s="3">
-        <v>4.25209E-2</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0.99979580000000001</v>
-      </c>
-      <c r="H67" s="3">
-        <v>5.9885319999999999E-2</v>
-      </c>
-      <c r="I67" s="3">
-        <v>0.98016340000000002</v>
-      </c>
-      <c r="J67" s="3">
-        <v>9.8088940000000004</v>
-      </c>
-      <c r="K67" s="3">
-        <v>14.44233</v>
-      </c>
-      <c r="L67" s="3">
-        <v>33.654899999999998</v>
-      </c>
-      <c r="M67" s="3">
-        <v>10.15189</v>
-      </c>
-      <c r="N67" s="3">
-        <v>0.85656639999999995</v>
-      </c>
-      <c r="O67" s="3">
-        <v>991.91780000000006</v>
-      </c>
-      <c r="P67" s="3">
-        <v>46.886038569999997</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>-91.052216319999999</v>
-      </c>
-      <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>45145.441400462965</v>
-      </c>
-      <c r="B68" s="3">
-        <v>13.37236</v>
-      </c>
-      <c r="C68" s="3">
-        <v>8.6486999999999998</v>
-      </c>
-      <c r="D68" s="3">
-        <v>64.402410000000003</v>
-      </c>
-      <c r="E68" s="3">
-        <v>91.870419999999996</v>
-      </c>
-      <c r="F68" s="3">
-        <v>4.2397770000000001E-2</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0.99980029999999998</v>
-      </c>
-      <c r="H68" s="3">
-        <v>5.9901070000000001E-2</v>
-      </c>
-      <c r="I68" s="3">
-        <v>1.152606</v>
-      </c>
-      <c r="J68" s="3">
-        <v>9.3820510000000006</v>
-      </c>
-      <c r="K68" s="3">
-        <v>14.46402</v>
-      </c>
-      <c r="L68" s="3">
-        <v>33.777389999999997</v>
-      </c>
-      <c r="M68" s="3">
-        <v>10.169219999999999</v>
-      </c>
-      <c r="N68" s="3">
-        <v>0.87166180000000004</v>
-      </c>
-      <c r="O68" s="3">
-        <v>991.90160000000003</v>
-      </c>
-      <c r="P68" s="3">
-        <v>46.886038569999997</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>-91.052216319999999</v>
-      </c>
-      <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>45145.441412037035</v>
-      </c>
-      <c r="B69" s="3">
-        <v>13.510020000000001</v>
-      </c>
-      <c r="C69" s="3">
-        <v>8.6655920000000002</v>
-      </c>
-      <c r="D69" s="3">
-        <v>64.349249999999998</v>
-      </c>
-      <c r="E69" s="3">
-        <v>91.878559999999993</v>
-      </c>
-      <c r="F69" s="3">
-        <v>4.2400930000000003E-2</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0.99980139999999995</v>
-      </c>
-      <c r="H69" s="3">
-        <v>5.991672E-2</v>
-      </c>
-      <c r="I69" s="3">
-        <v>1.166445</v>
-      </c>
-      <c r="J69" s="3">
-        <v>9.3459590000000006</v>
-      </c>
-      <c r="K69" s="3">
-        <v>14.46949</v>
-      </c>
-      <c r="L69" s="3">
-        <v>33.788719999999998</v>
-      </c>
-      <c r="M69" s="3">
-        <v>10.173069999999999</v>
-      </c>
-      <c r="N69" s="3">
-        <v>0.87234009999999995</v>
-      </c>
-      <c r="O69" s="3">
-        <v>991.90120000000002</v>
-      </c>
-      <c r="P69" s="3">
-        <v>46.886038569999997</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>-91.052216319999999</v>
-      </c>
-      <c r="R69" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
